--- a/exported_session.xlsx
+++ b/exported_session.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,100 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>sub#</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Style#</t>
-  </si>
-  <si>
-    <t>iDAPT#</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Footwear size</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>repeats</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-  <si>
-    <t>uphill</t>
-  </si>
-  <si>
-    <t>downhill</t>
-  </si>
-  <si>
-    <t>first slip</t>
-  </si>
-  <si>
-    <t>pre slip</t>
-  </si>
-  <si>
-    <t>slip</t>
-  </si>
-  <si>
-    <t>thermal</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>heaviness</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>easy take off</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>compare</t>
-  </si>
-  <si>
-    <t>observor</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>air temp</t>
-  </si>
-  <si>
-    <t>ice temp</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>N/A</t>
   </si>
@@ -122,12 +29,21 @@
   </si>
   <si>
     <t>joe</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>sub333</t>
+  </si>
+  <si>
+    <t>kelly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,6 +110,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -241,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,139 +407,137 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -656,13 +573,13 @@
         <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
         <v>5</v>

--- a/exported_session.xlsx
+++ b/exported_session.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>N/A</t>
   </si>
@@ -31,20 +31,110 @@
     <t>joe</t>
   </si>
   <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>sub333</t>
-  </si>
-  <si>
-    <t>kelly</t>
+    <t>REB#</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sub#</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Style#</t>
+  </si>
+  <si>
+    <t>iDAPT#</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Footwear size</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>repeats</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>uphill</t>
+  </si>
+  <si>
+    <t>downhill</t>
+  </si>
+  <si>
+    <t>first slip</t>
+  </si>
+  <si>
+    <t>pre slip</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>heaviness</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>easy take off</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>observor</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>air temp</t>
+  </si>
+  <si>
+    <t>ice temp</t>
+  </si>
+  <si>
+    <t>RH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +185,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -101,8 +198,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -404,155 +502,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
         <v>9</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>3</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -564,36 +664,42 @@
         <v>4</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W2">
         <v>7</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AC2" s="3">
         <v>5</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AD2" s="4">
         <v>5</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>5</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>5</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>5</v>
       </c>
     </row>

--- a/exported_session.xlsx
+++ b/exported_session.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>N/A</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>RH</t>
+  </si>
+  <si>
+    <t>sub000</t>
+  </si>
+  <si>
+    <t>iDAPT000</t>
+  </si>
+  <si>
+    <t>unknown gender</t>
+  </si>
+  <si>
+    <t>unknown walkway</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>wet</t>
   </si>
 </sst>
 </file>
@@ -502,13 +520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -701,6 +722,358 @@
       </c>
       <c r="AG2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>41255</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>41255</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>41255</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exported_session.xlsx
+++ b/exported_session.xlsx
@@ -115,22 +115,22 @@
     <t>RH</t>
   </si>
   <si>
-    <t>sub000</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>iDAPT000</t>
-  </si>
-  <si>
-    <t>unknown gender</t>
-  </si>
-  <si>
-    <t>unknown walkway</t>
-  </si>
-  <si>
-    <t>observer</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>sub007</t>
+  </si>
+  <si>
+    <t>iDAPT343</t>
+  </si>
+  <si>
+    <t>Wu</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AG3"/>
+      <selection activeCell="C3" sqref="C3:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,186 +619,168 @@
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="3">
-        <v>41255</v>
+        <v>43864</v>
       </c>
       <c r="AD2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+        <v>0.62708333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="3">
-        <v>41255</v>
+        <v>43864</v>
       </c>
       <c r="AD3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+        <v>0.62708333333333333</v>
       </c>
     </row>
   </sheetData>
